--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_27.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1567037.335510337</v>
+        <v>1562323.424555973</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516698</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791244</v>
+        <v>419463.0933791238</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9384608.371282311</v>
+        <v>9382248.453720637</v>
       </c>
     </row>
     <row r="11">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>238.4569858713546</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>276.1200729679498</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>119.942637699613</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
@@ -750,10 +750,10 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09591959794617</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
         <v>48.89338144820752</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>133.5813703291298</v>
@@ -798,7 +798,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>187.4140068734885</v>
@@ -817,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>108.1045920014102</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>86.64940239199029</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
@@ -835,10 +835,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>43.34865584801882</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>227.5393996399207</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -944,10 +944,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +987,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>69.98930104615368</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1032,10 +1032,10 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
-        <v>220.3146016126436</v>
+        <v>166.3009955447885</v>
       </c>
       <c r="W6" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>187.4140068734885</v>
@@ -1057,25 +1057,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>83.55373540747259</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>73.53570279912705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>25.33675171363424</v>
+        <v>111.2555373903795</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
@@ -1148,7 +1148,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1181,7 +1181,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>113.1667354347866</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>72.30123682227985</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1373,22 +1373,22 @@
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.479377239889</v>
+        <v>299.9714105548518</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372791</v>
+        <v>65.87543334372789</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362803</v>
+        <v>93.77010711362801</v>
       </c>
       <c r="T11" t="n">
         <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750155</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866635</v>
@@ -1436,7 +1436,7 @@
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>10.33846969063774</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>99.12964256534909</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177849</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.9249116246576</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442487</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681699</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338904</v>
+        <v>82.84545313338903</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456096</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901689</v>
+        <v>14.00402593297235</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
         <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457862</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
         <v>192.2412393326521</v>
@@ -1591,10 +1591,10 @@
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.1654340873666</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E14" t="n">
-        <v>327.479377239889</v>
+        <v>327.4793772398888</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>341.6471816905899</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>337.9528155621448</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>172.3495380358483</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362803</v>
+        <v>93.77010711362789</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214456</v>
+        <v>150.1872840214454</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>259.0200989236498</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>314.4797666215417</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.447489593873</v>
+        <v>321.4474895938728</v>
       </c>
     </row>
     <row r="15">
@@ -1765,25 +1765,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>41.527830506938</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177849</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465745</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442487</v>
+        <v>84.67436304442472</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681686</v>
       </c>
       <c r="H16" t="n">
-        <v>36.97143564107738</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456083</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>129.7096105845441</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187161</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457862</v>
+        <v>211.506091445786</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534022</v>
+        <v>209.4187856534021</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767912</v>
+        <v>149.802628176791</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059422</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
@@ -2561,7 +2561,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2615,13 +2615,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380451</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497644</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C29" t="n">
         <v>295.2524720077822</v>
@@ -2798,7 +2798,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F29" t="n">
         <v>318.7342196110055</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404346</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2852,13 +2852,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380447</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I31" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542121</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820279</v>
+        <v>276.4638267093888</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954282</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345501</v>
+        <v>285.777769861911</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852512</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568061</v>
+        <v>296.251208184167</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291035</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838904</v>
+        <v>24.17382596574991</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828916</v>
+        <v>52.06849973565004</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161067</v>
+        <v>108.4856766434676</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696766</v>
+        <v>140.4152824970375</v>
       </c>
       <c r="V32" t="n">
-        <v>232.349283903446</v>
+        <v>225.9058214308069</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813246</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162029</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885341</v>
+        <v>279.745882215895</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431749</v>
+        <v>70.57601873167836</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459989</v>
+        <v>55.72314698196077</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643962</v>
+        <v>41.29686219380049</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931873</v>
+        <v>41.2233042466796</v>
       </c>
       <c r="F34" t="n">
-        <v>49.416218139086</v>
+        <v>42.97275566644687</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147813</v>
+        <v>53.79159358883901</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805018</v>
+        <v>41.14384575541105</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922211</v>
+        <v>18.98356133658298</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367802</v>
+        <v>9.882059701038898</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920534</v>
+        <v>88.00800320656622</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133774</v>
+        <v>120.5819415407383</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404473</v>
+        <v>169.8044840678082</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273132</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480634</v>
+        <v>167.7171782754243</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947759</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714523</v>
+        <v>108.1010207988132</v>
       </c>
     </row>
     <row r="35">
@@ -3989,13 +3989,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4037,10 +4037,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H46" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>469.5124493363701</v>
+        <v>1240.183969311649</v>
       </c>
       <c r="C2" t="n">
-        <v>469.5124493363701</v>
+        <v>1240.183969311649</v>
       </c>
       <c r="D2" t="n">
-        <v>469.5124493363701</v>
+        <v>1240.183969311649</v>
       </c>
       <c r="E2" t="n">
-        <v>469.5124493363701</v>
+        <v>837.6004444281934</v>
       </c>
       <c r="F2" t="n">
-        <v>456.6584149067519</v>
+        <v>420.7060059581712</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475503</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475503</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475503</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K2" t="n">
-        <v>43.49565939475503</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L2" t="n">
-        <v>135.6402479253973</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M2" t="n">
-        <v>673.8990329354907</v>
+        <v>1552.058346020846</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.710316572953</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465281</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596803</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023273</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="S2" t="n">
-        <v>1970.276500964324</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="T2" t="n">
-        <v>1746.775898523741</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="U2" t="n">
-        <v>1491.023168958339</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="V2" t="n">
-        <v>1148.916359661858</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="W2" t="n">
-        <v>1148.916359661858</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="X2" t="n">
-        <v>1148.916359661858</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="Y2" t="n">
-        <v>870.007195047767</v>
+        <v>1640.678715023046</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021465</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622387</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D3" t="n">
-        <v>375.0702200837191</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E3" t="n">
-        <v>238.6237291946068</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>114.1919230777386</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>114.1919230777386</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284344</v>
+        <v>90.89050074442687</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144824</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="K3" t="n">
-        <v>156.6106416144824</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="L3" t="n">
-        <v>640.1767275127957</v>
+        <v>525.0693326546517</v>
       </c>
       <c r="M3" t="n">
-        <v>1178.435512522889</v>
+        <v>1038.67201126434</v>
       </c>
       <c r="N3" t="n">
-        <v>1534.796509466463</v>
+        <v>1038.67201126434</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466463</v>
+        <v>1435.175877545635</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182861</v>
+        <v>1840.797246262032</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635816</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535685</v>
+        <v>1940.231660716792</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734593</v>
+        <v>1763.2478489157</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413235</v>
+        <v>1553.184705594342</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784302</v>
+        <v>1330.644703965409</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917589</v>
+        <v>1330.644703965409</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692676006</v>
+        <v>1141.337626315421</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431079</v>
+        <v>962.023409390928</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>944.9426819363074</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="C4" t="n">
-        <v>835.7461243591254</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="D4" t="n">
-        <v>680.1130112616401</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="E4" t="n">
-        <v>524.5541991208426</v>
+        <v>528.7085472322191</v>
       </c>
       <c r="F4" t="n">
-        <v>367.2282643338155</v>
+        <v>528.7085472322191</v>
       </c>
       <c r="G4" t="n">
-        <v>198.974210433261</v>
+        <v>360.4544933316647</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475503</v>
+        <v>204.9759422931586</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475503</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="U4" t="n">
-        <v>944.9426819363074</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="V4" t="n">
-        <v>944.9426819363074</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="W4" t="n">
-        <v>944.9426819363074</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="X4" t="n">
-        <v>944.9426819363074</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="Y4" t="n">
-        <v>944.9426819363074</v>
+        <v>616.2331961130174</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1148.916359661858</v>
+        <v>999.0326551025582</v>
       </c>
       <c r="C5" t="n">
-        <v>1148.916359661858</v>
+        <v>605.8571536054887</v>
       </c>
       <c r="D5" t="n">
-        <v>1148.916359661858</v>
+        <v>605.8571536054887</v>
       </c>
       <c r="E5" t="n">
-        <v>1148.916359661858</v>
+        <v>605.8571536054887</v>
       </c>
       <c r="F5" t="n">
-        <v>919.0785822477965</v>
+        <v>593.0031191758706</v>
       </c>
       <c r="G5" t="n">
-        <v>505.9158267357996</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022902</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L5" t="n">
-        <v>547.1277883310449</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M5" t="n">
-        <v>1085.386573341139</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="N5" t="n">
-        <v>1201.710316572953</v>
+        <v>1552.058346020846</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465281</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596803</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023273</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964324</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="T5" t="n">
-        <v>1746.775898523741</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="U5" t="n">
-        <v>1491.023168958339</v>
+        <v>1781.416694537043</v>
       </c>
       <c r="V5" t="n">
-        <v>1148.916359661858</v>
+        <v>1439.309885240562</v>
       </c>
       <c r="W5" t="n">
-        <v>1148.916359661858</v>
+        <v>1439.309885240562</v>
       </c>
       <c r="X5" t="n">
-        <v>1148.916359661858</v>
+        <v>1439.309885240562</v>
       </c>
       <c r="Y5" t="n">
-        <v>1148.916359661858</v>
+        <v>1042.819176161163</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655.8134179021465</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C6" t="n">
-        <v>505.1591874622387</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D6" t="n">
-        <v>375.0702200837191</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>238.6237291946068</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>114.1919230777386</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>43.49565939475503</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>43.49565939475503</v>
+        <v>90.89050074442687</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144824</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>361.2423928185649</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>844.8084787168782</v>
       </c>
       <c r="M6" t="n">
-        <v>1120.003902136677</v>
+        <v>1358.411157326567</v>
       </c>
       <c r="N6" t="n">
-        <v>1658.262687146771</v>
+        <v>1872.013835936255</v>
       </c>
       <c r="O6" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="P6" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635816</v>
+        <v>2051.245294714987</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535685</v>
+        <v>1916.314617614856</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734593</v>
+        <v>1739.330805813765</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413235</v>
+        <v>1529.267662492406</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784302</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917589</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X6" t="n">
-        <v>986.9239692676006</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>807.6097523431079</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>229.3524806071591</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="C7" t="n">
-        <v>229.3524806071591</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="D7" t="n">
-        <v>229.3524806071591</v>
+        <v>655.7364729476396</v>
       </c>
       <c r="E7" t="n">
-        <v>229.3524806071591</v>
+        <v>500.1776608068421</v>
       </c>
       <c r="F7" t="n">
-        <v>229.3524806071591</v>
+        <v>342.851726019815</v>
       </c>
       <c r="G7" t="n">
-        <v>229.3524806071591</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="H7" t="n">
-        <v>73.87392956865308</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="I7" t="n">
-        <v>73.87392956865308</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>821.0416925688844</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="T7" t="n">
-        <v>821.0416925688844</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="U7" t="n">
-        <v>821.0416925688844</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="V7" t="n">
-        <v>821.0416925688844</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="W7" t="n">
-        <v>537.711290500062</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="X7" t="n">
-        <v>303.630968283045</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="Y7" t="n">
-        <v>229.3524806071591</v>
+        <v>740.1341854804402</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2161.142036303753</v>
+        <v>1530.670136571906</v>
       </c>
       <c r="C8" t="n">
-        <v>1767.966534806683</v>
+        <v>1530.670136571906</v>
       </c>
       <c r="D8" t="n">
-        <v>1742.373856308063</v>
+        <v>1418.290805874553</v>
       </c>
       <c r="E8" t="n">
-        <v>1339.790331424607</v>
+        <v>1015.707280991098</v>
       </c>
       <c r="F8" t="n">
-        <v>922.895892954585</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G8" t="n">
-        <v>509.7331374425881</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H8" t="n">
         <v>185.6500870090788</v>
@@ -4802,22 +4802,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L8" t="n">
-        <v>1044.265390756362</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M8" t="n">
-        <v>1590.266290800943</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N8" t="n">
-        <v>2118.077574438405</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
         <v>2365.64850507718</v>
@@ -4829,25 +4829,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U8" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="V8" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="W8" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="X8" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="Y8" t="n">
-        <v>2161.142036303753</v>
+        <v>1931.164882283303</v>
       </c>
     </row>
     <row r="9">
@@ -4884,16 +4884,16 @@
         <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
-        <v>194.5661265746817</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L9" t="n">
-        <v>678.132212472995</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M9" t="n">
-        <v>1263.630217479597</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="N9" t="n">
-        <v>1849.128222486199</v>
+        <v>2021.614212075288</v>
       </c>
       <c r="O9" t="n">
         <v>2365.64850507718</v>
@@ -4984,19 +4984,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>834.4501588705843</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T10" t="n">
-        <v>598.7311070388184</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U10" t="n">
-        <v>313.2923152807194</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="V10" t="n">
-        <v>47.31297010154361</v>
+        <v>120.3445224472808</v>
       </c>
       <c r="W10" t="n">
         <v>47.31297010154361</v>
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1719.577864530541</v>
+        <v>1318.972249543668</v>
       </c>
       <c r="C11" t="n">
-        <v>1398.198638179666</v>
+        <v>997.5930231927921</v>
       </c>
       <c r="D11" t="n">
-        <v>1398.198638179666</v>
+        <v>683.9481695556536</v>
       </c>
       <c r="E11" t="n">
-        <v>1067.411388442404</v>
+        <v>380.9467447527723</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185756</v>
+        <v>380.9467447527723</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527726</v>
+        <v>380.9467447527723</v>
       </c>
       <c r="H11" t="n">
-        <v>128.659969465457</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5069,22 +5069,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>2859.534777998631</v>
+        <v>2859.534777998632</v>
       </c>
       <c r="U11" t="n">
-        <v>2675.578323579424</v>
+        <v>2859.534777998632</v>
       </c>
       <c r="V11" t="n">
-        <v>2675.578323579424</v>
+        <v>2589.224243848344</v>
       </c>
       <c r="W11" t="n">
-        <v>2376.375563693905</v>
+        <v>2290.021483962825</v>
       </c>
       <c r="X11" t="n">
-        <v>2058.719233773156</v>
+        <v>1972.365154042076</v>
       </c>
       <c r="Y11" t="n">
-        <v>2048.276335095744</v>
+        <v>1647.670720108871</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>207.7175872278004</v>
+        <v>112.6101842924878</v>
       </c>
       <c r="L12" t="n">
-        <v>691.2836731261136</v>
+        <v>596.176270190801</v>
       </c>
       <c r="M12" t="n">
-        <v>1319.055322752795</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N12" t="n">
-        <v>1974.833293963354</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>398.9304381831561</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="C13" t="n">
-        <v>398.9304381831561</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="D13" t="n">
-        <v>315.0936002318646</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="E13" t="n">
-        <v>231.3310632372609</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="F13" t="n">
-        <v>145.8014035964277</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="G13" t="n">
-        <v>145.8014035964277</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H13" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774626</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
         <v>254.9154847581891</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027735</v>
       </c>
       <c r="M13" t="n">
         <v>746.0697615118221</v>
@@ -5212,7 +5212,7 @@
         <v>999.6269248138159</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126309</v>
+        <v>1232.699221126308</v>
       </c>
       <c r="P13" t="n">
         <v>1422.942916173672</v>
@@ -5221,28 +5221,28 @@
         <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593278</v>
+        <v>1482.587161074131</v>
       </c>
       <c r="S13" t="n">
-        <v>1444.627927593278</v>
+        <v>1351.567352402874</v>
       </c>
       <c r="T13" t="n">
-        <v>1280.705150907706</v>
+        <v>1187.644575717302</v>
       </c>
       <c r="U13" t="n">
-        <v>1067.062634295801</v>
+        <v>974.0020591053972</v>
       </c>
       <c r="V13" t="n">
-        <v>872.8795642628191</v>
+        <v>779.8189890724153</v>
       </c>
       <c r="W13" t="n">
-        <v>661.3454373401904</v>
+        <v>568.2848621497867</v>
       </c>
       <c r="X13" t="n">
-        <v>499.0613902693673</v>
+        <v>568.2848621497867</v>
       </c>
       <c r="Y13" t="n">
-        <v>499.0613902693673</v>
+        <v>416.969076112624</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1645.302650055462</v>
+        <v>1888.485543579474</v>
       </c>
       <c r="C14" t="n">
-        <v>1645.302650055462</v>
+        <v>1567.106317228599</v>
       </c>
       <c r="D14" t="n">
-        <v>1331.657796418324</v>
+        <v>1253.46146359146</v>
       </c>
       <c r="E14" t="n">
-        <v>1000.870546681062</v>
+        <v>922.6742138541989</v>
       </c>
       <c r="F14" t="n">
-        <v>655.7723833572339</v>
+        <v>577.5760505303708</v>
       </c>
       <c r="G14" t="n">
-        <v>314.405902991431</v>
+        <v>236.2095701645683</v>
       </c>
       <c r="H14" t="n">
         <v>62.11912770411553</v>
@@ -5312,16 +5312,16 @@
         <v>2859.534777998631</v>
       </c>
       <c r="V14" t="n">
-        <v>2597.898314439389</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="W14" t="n">
-        <v>2298.69555455387</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="X14" t="n">
-        <v>2298.69555455387</v>
+        <v>2541.878448077882</v>
       </c>
       <c r="Y14" t="n">
-        <v>1974.001120620665</v>
+        <v>2217.184014144677</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>175.2341099238429</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>175.2341099238429</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>803.0057595505241</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.783730761083</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>1975.304013352064</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
         <v>2146.089571124861</v>
@@ -5410,49 +5410,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>268.8305097821774</v>
+        <v>431.1145568530021</v>
       </c>
       <c r="C16" t="n">
-        <v>268.8305097821774</v>
+        <v>389.1672533106407</v>
       </c>
       <c r="D16" t="n">
-        <v>184.993671830886</v>
+        <v>389.1672533106407</v>
       </c>
       <c r="E16" t="n">
-        <v>184.993671830886</v>
+        <v>305.4047163160372</v>
       </c>
       <c r="F16" t="n">
-        <v>99.4640121900527</v>
+        <v>219.8750566752041</v>
       </c>
       <c r="G16" t="n">
-        <v>99.4640121900527</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="H16" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774626</v>
+        <v>102.7129143774628</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581894</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027739</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118221</v>
+        <v>746.0697615118227</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138159</v>
+        <v>999.6269248138166</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
       </c>
       <c r="P16" t="n">
-        <v>1422.942916173672</v>
+        <v>1422.942916173673</v>
       </c>
       <c r="Q16" t="n">
         <v>1496.732641814508</v>
@@ -5461,25 +5461,25 @@
         <v>1496.732641814508</v>
       </c>
       <c r="S16" t="n">
-        <v>1365.712833143251</v>
+        <v>1365.712833143252</v>
       </c>
       <c r="T16" t="n">
-        <v>1201.790056457679</v>
+        <v>1201.79005645768</v>
       </c>
       <c r="U16" t="n">
-        <v>988.1475398457735</v>
+        <v>988.1475398457749</v>
       </c>
       <c r="V16" t="n">
-        <v>793.9644698127917</v>
+        <v>793.9644698127931</v>
       </c>
       <c r="W16" t="n">
-        <v>582.4303428901633</v>
+        <v>582.4303428901648</v>
       </c>
       <c r="X16" t="n">
-        <v>420.1462958193403</v>
+        <v>582.4303428901648</v>
       </c>
       <c r="Y16" t="n">
-        <v>268.8305097821774</v>
+        <v>431.1145568530021</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099317</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803433</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292424</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L17" t="n">
         <v>1059.071548358934</v>
@@ -5549,10 +5549,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5677,19 +5677,19 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960402</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>499.9530296343043</v>
       </c>
       <c r="N19" t="n">
-        <v>677.5630210573304</v>
+        <v>683.1426636655135</v>
       </c>
       <c r="O19" t="n">
-        <v>840.2677880990384</v>
+        <v>845.8474307072216</v>
       </c>
       <c r="P19" t="n">
-        <v>965.7235964838006</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
         <v>1098.20216247628</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5777,13 +5777,13 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V20" t="n">
         <v>2644.789635573994</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5917,13 +5917,13 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>499.953029634305</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>683.1426636655142</v>
+        <v>683.1426636655136</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P22" t="n">
         <v>1094.779966106229</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5966,22 +5966,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6069,22 +6069,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>346.9752758473783</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L24" t="n">
-        <v>830.5413617456916</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M24" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N24" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6148,25 +6148,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222405</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960402</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>499.9530296343043</v>
       </c>
       <c r="N25" t="n">
-        <v>806.6193906797589</v>
+        <v>683.1426636655135</v>
       </c>
       <c r="O25" t="n">
-        <v>969.3241577214669</v>
+        <v>845.8474307072216</v>
       </c>
       <c r="P25" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218597</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390258</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142174</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>303.7986541368133</v>
       </c>
       <c r="K26" t="n">
-        <v>763.0997113429868</v>
+        <v>755.8323718938484</v>
       </c>
       <c r="L26" t="n">
-        <v>1349.471364791089</v>
+        <v>1249.152663612377</v>
       </c>
       <c r="M26" t="n">
-        <v>1988.523626565243</v>
+        <v>1888.204925386531</v>
       </c>
       <c r="N26" t="n">
-        <v>2609.386271932278</v>
+        <v>2509.067570753567</v>
       </c>
       <c r="O26" t="n">
-        <v>3079.395388107029</v>
+        <v>3042.158533375468</v>
       </c>
       <c r="P26" t="n">
-        <v>3427.582880238551</v>
+        <v>3483.397387236564</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="27">
@@ -6297,10 +6297,10 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
         <v>186.4798411672776</v>
@@ -6312,10 +6312,10 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1617.556722754498</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N27" t="n">
-        <v>1617.556722754498</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O27" t="n">
         <v>1751.713933651898</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985349</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517124</v>
+        <v>429.0656615517127</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414158</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878064</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
         <v>245.3698453879679</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.5186030232842</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225736</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.050822590411</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6427,7 +6427,7 @@
         <v>722.7688154988161</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026478</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424151</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.22278621427</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
         <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218597</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390258</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142174</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H29" t="n">
-        <v>116.761294567897</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>247.9841471387999</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>700.017864895835</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1286.389518343937</v>
+        <v>1286.389518343938</v>
       </c>
       <c r="M29" t="n">
-        <v>1832.390418388518</v>
+        <v>1832.390418388519</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.20170202598</v>
+        <v>2453.253063755554</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647882</v>
+        <v>2893.292664647883</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508977</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.428440379499</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605753</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452358</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174142</v>
+        <v>3307.298104174145</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164849</v>
+        <v>3060.131976164852</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420325</v>
+        <v>2784.073622420328</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.56169864057</v>
+        <v>2489.561698640573</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848359</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="30">
@@ -6534,10 +6534,10 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H30" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
         <v>186.4798411672776</v>
@@ -6549,10 +6549,10 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1095.935962441339</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N30" t="n">
-        <v>1751.713933651898</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O30" t="n">
         <v>1751.713933651898</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985351</v>
+        <v>504.3300981985349</v>
       </c>
       <c r="C31" t="n">
-        <v>429.065661551713</v>
+        <v>429.0656615517124</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414161</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E31" t="n">
         <v>307.7550988878066</v>
       </c>
       <c r="F31" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G31" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H31" t="n">
         <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796862</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6658,13 +6658,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988161</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026478</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.79887591859</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303046</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401239</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463668</v>
+        <v>904.3560533993084</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057089</v>
+        <v>601.3807258108113</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230764</v>
+        <v>302.1370811803397</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189324</v>
+        <v>91.97314162835514</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076167</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>323.857029086156</v>
       </c>
       <c r="K32" t="n">
-        <v>658.5898600230628</v>
+        <v>682.8393851136179</v>
       </c>
       <c r="L32" t="n">
-        <v>1151.910151741592</v>
+        <v>1176.159676832147</v>
       </c>
       <c r="M32" t="n">
-        <v>1803.184144513242</v>
+        <v>1722.160576876727</v>
       </c>
       <c r="N32" t="n">
-        <v>2330.995428150704</v>
+        <v>2249.971860514189</v>
       </c>
       <c r="O32" t="n">
-        <v>2876.308121770103</v>
+        <v>2801.663581981501</v>
       </c>
       <c r="P32" t="n">
-        <v>3224.495613901625</v>
+        <v>3149.851074113022</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042574</v>
+        <v>3377.756780117256</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038084</v>
+        <v>3377.756780117256</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908499</v>
+        <v>3325.162335939832</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.18438039728</v>
+        <v>3215.580844380774</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.747225696898</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394125</v>
+        <v>2845.559527281941</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291777</v>
+        <v>2588.479603131754</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946336</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004163</v>
+        <v>2030.374510748462</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076167</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="J33" t="n">
-        <v>182.6625304604891</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227155</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>983.9753497826122</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.376340354128</v>
+        <v>983.9753497826122</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965139</v>
+        <v>365.6713676929722</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918675</v>
+        <v>309.3853606404866</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237467</v>
+        <v>267.6713584245265</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123136</v>
+        <v>226.0316571652542</v>
       </c>
       <c r="F34" t="n">
-        <v>204.142889754651</v>
+        <v>182.6248332597523</v>
       </c>
       <c r="G34" t="n">
-        <v>143.299398783461</v>
+        <v>128.2898902407229</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431936</v>
+        <v>86.73045008374207</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076167</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703943</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="K34" t="n">
-        <v>245.4092634067548</v>
+        <v>149.390176712287</v>
       </c>
       <c r="L34" t="n">
-        <v>409.5369032805546</v>
+        <v>313.5178165860867</v>
       </c>
       <c r="M34" t="n">
-        <v>701.1015743458887</v>
+        <v>611.4615154993335</v>
       </c>
       <c r="N34" t="n">
-        <v>989.564301104168</v>
+        <v>870.677065535354</v>
       </c>
       <c r="O34" t="n">
-        <v>1257.542160872946</v>
+        <v>1145.033953152045</v>
       </c>
       <c r="P34" t="n">
-        <v>1482.691419376595</v>
+        <v>1264.910118928623</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746646</v>
+        <v>1379.984435873657</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308587</v>
+        <v>1370.002557387759</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420501</v>
+        <v>1281.105584451834</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.9091795181</v>
+        <v>1159.305643501593</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689365</v>
+        <v>987.7859626250194</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395535</v>
+        <v>835.7257283273688</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000955</v>
+        <v>666.3144371400715</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012443</v>
+        <v>546.1532258045797</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584508</v>
+        <v>436.9602755027483</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
         <v>1352.560722599516</v>
@@ -6962,7 +6962,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6977,7 +6977,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7105,7 +7105,7 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
         <v>969.3241577214669</v>
@@ -7114,7 +7114,7 @@
         <v>1089.200323498045</v>
       </c>
       <c r="Q37" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7199,7 +7199,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7208,7 +7208,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
         <v>2405.46733722469</v>
@@ -7251,25 +7251,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N39" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7330,13 +7330,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>67.69877031229888</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>149.5338114222407</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L40" t="n">
-        <v>313.6614512960405</v>
+        <v>442.7178209184691</v>
       </c>
       <c r="M40" t="n">
         <v>629.0093992567331</v>
@@ -7403,7 +7403,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7433,7 +7433,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
         <v>3071.119566829236</v>
@@ -7561,7 +7561,7 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7570,22 +7570,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N43" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O43" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P43" t="n">
-        <v>965.7235964838006</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q43" t="n">
         <v>1098.20216247628</v>
@@ -7640,7 +7640,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924227</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7670,10 +7670,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
@@ -7682,7 +7682,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
         <v>2405.467337224691</v>
@@ -7731,19 +7731,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L45" t="n">
-        <v>545.6852136024288</v>
+        <v>346.0196676966397</v>
       </c>
       <c r="M45" t="n">
-        <v>1173.45686322911</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N45" t="n">
-        <v>1829.234834439669</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O45" t="n">
-        <v>2345.75511703065</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H46" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229942</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222413</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M46" t="n">
-        <v>623.4297566485498</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N46" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296512</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S46" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
   </sheetData>
@@ -7976,25 +7976,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>246.3235116806354</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321651</v>
+        <v>668.5156360519579</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>490.7936748278132</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8055,7 +8055,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
         <v>89.59693533333335</v>
@@ -8064,13 +8064,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837497</v>
+        <v>611.1777065035426</v>
       </c>
       <c r="N3" t="n">
-        <v>445.3327158274742</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>493.1965147285805</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8219,19 +8219,19 @@
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321651</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>266.6172218749701</v>
+        <v>667.9090757920148</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>491.2390209141255</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8292,7 +8292,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
@@ -8301,13 +8301,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>254.0922014045189</v>
+        <v>611.1777065035426</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886045</v>
+        <v>604.1626973083974</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>297.8880658390585</v>
       </c>
       <c r="P6" t="n">
         <v>87.08336481931465</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
         <v>505.666843611017</v>
@@ -8459,16 +8459,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>301.2346582324079</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>399.6354845339704</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
         <v>144.4986984183922</v>
@@ -8532,7 +8532,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>238.3374974274122</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
@@ -8544,7 +8544,7 @@
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>440.1969457594874</v>
       </c>
       <c r="P9" t="n">
         <v>87.08336481931465</v>
@@ -8766,10 +8766,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>122.408528569654</v>
+        <v>140.5980025943154</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
@@ -8778,16 +8778,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,25 +9003,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>259.5940292362812</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
         <v>327.7205688679246</v>
@@ -9717,13 +9717,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>377.3304183063261</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N24" t="n">
         <v>85.37211285416666</v>
@@ -9735,7 +9735,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9960,13 +9960,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O27" t="n">
-        <v>228.1998931286863</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10197,13 +10197,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>199.6102425680203</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10434,10 +10434,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118434</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10899,7 +10899,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
@@ -10908,7 +10908,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>691.2645480167034</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N39" t="n">
         <v>85.37211285416666</v>
@@ -10920,7 +10920,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11379,7 +11379,7 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>376.8285690715891</v>
       </c>
       <c r="M45" t="n">
         <v>726.4998994499999</v>
@@ -11391,10 +11391,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>122.133410929518</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23261,16 +23261,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>27.50796668503716</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23312,10 +23312,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087849</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>311.1090199032353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13.14798354430727</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993876</v>
+        <v>97.42475435993875</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177847</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465758</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442485</v>
       </c>
       <c r="G13" t="n">
-        <v>95.493200966817</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456097</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>37.57964114604452</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>77.41436949859391</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372791</v>
+        <v>65.87543334372776</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,16 +23549,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750155</v>
+        <v>182.1168898750153</v>
       </c>
       <c r="V14" t="n">
-        <v>8.587329885135164</v>
+        <v>267.6074288087847</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096564</v>
+        <v>112.2776261096562</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993876</v>
+        <v>55.89692385300062</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177834</v>
       </c>
       <c r="E16" t="n">
-        <v>82.9249116246576</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.493200966817</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>45.87401749231167</v>
+        <v>82.8454531333889</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456097</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901689</v>
+        <v>51.58366707901675</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>160.6612066001147</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>818907.1720611464</v>
+        <v>817704.0768336258</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>818907.1720611464</v>
+        <v>817704.0768336258</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>736860.9726935492</v>
+        <v>736860.9726935495</v>
       </c>
     </row>
     <row r="7">
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>486896.8808520635</v>
+        <v>486896.8808520634</v>
       </c>
       <c r="C2" t="n">
         <v>486896.8808520635</v>
       </c>
       <c r="D2" t="n">
-        <v>486896.8808520636</v>
+        <v>486896.8808520635</v>
       </c>
       <c r="E2" t="n">
         <v>430269.3632458815</v>
       </c>
       <c r="F2" t="n">
-        <v>430269.3632458815</v>
+        <v>430269.363245882</v>
       </c>
       <c r="G2" t="n">
-        <v>486896.8808520627</v>
+        <v>486896.8808520628</v>
       </c>
       <c r="H2" t="n">
         <v>486896.8808520627</v>
       </c>
       <c r="I2" t="n">
-        <v>486896.8808520625</v>
+        <v>486896.8808520627</v>
       </c>
       <c r="J2" t="n">
+        <v>486896.8808520632</v>
+      </c>
+      <c r="K2" t="n">
         <v>486896.8808520633</v>
       </c>
-      <c r="K2" t="n">
-        <v>486896.8808520632</v>
-      </c>
       <c r="L2" t="n">
-        <v>486896.8808520632</v>
+        <v>486896.8808520628</v>
       </c>
       <c r="M2" t="n">
-        <v>486896.8808520625</v>
+        <v>486896.8808520627</v>
       </c>
       <c r="N2" t="n">
         <v>486896.8808520627</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918561</v>
+        <v>173858.6570340552</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062169</v>
+        <v>22558.42953401344</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668198</v>
+        <v>47425.32553668188</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945027</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
-        <v>3.410605131648481e-11</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728541</v>
+        <v>62456.24177539665</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962297</v>
+        <v>43252.52447081116</v>
       </c>
       <c r="N3" t="n">
         <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277115</v>
+        <v>27767.69404277118</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210684.9094840229</v>
+        <v>216193.9885327255</v>
       </c>
       <c r="C4" t="n">
-        <v>210684.9094840228</v>
+        <v>216193.9885327255</v>
       </c>
       <c r="D4" t="n">
         <v>200129.9340579131</v>
@@ -26427,10 +26427,10 @@
         <v>125701.6674923646</v>
       </c>
       <c r="F4" t="n">
-        <v>125701.6674923646</v>
+        <v>125701.6674923647</v>
       </c>
       <c r="G4" t="n">
-        <v>173460.5839839467</v>
+        <v>173460.5839839468</v>
       </c>
       <c r="H4" t="n">
         <v>173460.5839839468</v>
@@ -26445,7 +26445,7 @@
         <v>174211.0764483299</v>
       </c>
       <c r="L4" t="n">
-        <v>173955.5025478466</v>
+        <v>173822.1079387918</v>
       </c>
       <c r="M4" t="n">
         <v>173460.5839839468</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001382</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001382</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26497,7 +26497,7 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173852</v>
+        <v>60823.19813315423</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26506,7 +26506,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551966</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27322.72193617062</v>
+        <v>31674.16775046552</v>
       </c>
       <c r="C6" t="n">
-        <v>209527.6702280269</v>
+        <v>205532.8247845207</v>
       </c>
       <c r="D6" t="n">
-        <v>202359.3492063556</v>
+        <v>194623.0599829638</v>
       </c>
       <c r="E6" t="n">
-        <v>139259.1145796319</v>
+        <v>139049.3830329424</v>
       </c>
       <c r="F6" t="n">
-        <v>251381.6760536764</v>
+        <v>251171.9445069871</v>
       </c>
       <c r="G6" t="n">
-        <v>207841.2020159143</v>
+        <v>207841.2020159145</v>
       </c>
       <c r="H6" t="n">
-        <v>255266.5275525963</v>
+        <v>255266.5275525962</v>
       </c>
       <c r="I6" t="n">
-        <v>255266.5275525961</v>
+        <v>255266.5275525962</v>
       </c>
       <c r="J6" t="n">
-        <v>42224.60995531116</v>
+        <v>48740.89510988443</v>
       </c>
       <c r="K6" t="n">
         <v>249026.7591498138</v>
       </c>
       <c r="L6" t="n">
-        <v>193844.1702151927</v>
+        <v>189795.3330047201</v>
       </c>
       <c r="M6" t="n">
-        <v>213065.6980929732</v>
+        <v>212014.003081785</v>
       </c>
       <c r="N6" t="n">
         <v>255266.5275525962</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
+        <v>93.99127447431648</v>
+      </c>
+      <c r="K2" t="n">
         <v>93.99127447431644</v>
       </c>
-      <c r="K2" t="n">
-        <v>93.99127447431648</v>
-      </c>
       <c r="L2" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344379</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344379</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26811,13 +26811,13 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
+        <v>917.0607368443781</v>
+      </c>
+      <c r="K4" t="n">
         <v>917.0607368443783</v>
       </c>
-      <c r="K4" t="n">
-        <v>917.0607368443781</v>
-      </c>
       <c r="L4" t="n">
-        <v>869.3443530095209</v>
+        <v>844.439195029314</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26826,10 +26826,10 @@
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.27897692436818e-13</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085247</v>
+        <v>59.28165692085236</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.709617553464</v>
       </c>
       <c r="K2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660676</v>
+        <v>78.07030221924582</v>
       </c>
       <c r="M2" t="n">
-        <v>24.0235120155136</v>
+        <v>17.58004954287448</v>
       </c>
       <c r="N2" t="n">
         <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346394</v>
+        <v>34.70961755346397</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344379</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.7163838348572</v>
+        <v>72.62154181506435</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773721</v>
+        <v>659.3622249971647</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.2217133240722</v>
+        <v>117.1268713042791</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.27897692436818e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085247</v>
+        <v>59.28165692085236</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.709617553464</v>
       </c>
       <c r="P2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>8.526512829121202e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344379</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.7163838348572</v>
+        <v>72.62154181506435</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27385,19 +27385,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>170.5741420855223</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
@@ -27445,7 +27445,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>116.4057290206551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>30.33573339693876</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27470,10 +27470,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>66.3185226374589</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27518,7 +27518,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27537,16 +27537,16 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>60.39847475326046</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>67.35382162739921</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,10 +27555,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>353.1411424062641</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
@@ -27625,13 +27625,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>185.1860944454013</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27707,13 +27707,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>48.86991870270052</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27752,10 +27752,10 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>54.01360606785508</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27777,25 +27777,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>70.52304655903781</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
@@ -27834,13 +27834,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>147.345237772396</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>356.2499657818647</v>
+        <v>270.3311801051195</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
@@ -27919,7 +27919,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>87.62118754448949</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>208.1958612258543</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473205</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473205</v>
       </c>
     </row>
     <row r="17">
@@ -28749,7 +28749,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>5.636002634528353</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28761,10 +28761,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>5.636002634528936</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Q19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
@@ -28989,10 +28989,10 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>5.636002634529063</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>5.636002634528467</v>
       </c>
       <c r="O22" t="n">
         <v>130.3599693155844</v>
@@ -29220,7 +29220,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>5.636002634528339</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29229,19 +29229,19 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431644</v>
+        <v>86.6505275559949</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O26" t="n">
-        <v>30.27223765901266</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431644</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J29" t="n">
-        <v>30.27223765901169</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431648</v>
+        <v>30.2722376590126</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="K32" t="n">
-        <v>86.27291196566784</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>43.49509683160119</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000708</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000708</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>18.71446861254412</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000708</v>
+        <v>76.79385455031451</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="35">
@@ -30177,19 +30177,19 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>5.636002634529005</v>
       </c>
       <c r="R37" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30402,16 +30402,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>35.71049010668771</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>5.636002634528666</v>
       </c>
       <c r="M40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -30642,13 +30642,13 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -30657,10 +30657,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>5.636002634528936</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>122.6619794737488</v>
@@ -30876,22 +30876,22 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668825</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>5.63600263452949</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>93.07534195014368</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344379</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>341.6751834900291</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34784,13 +34784,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344379</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9606029733076</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>400.5089558396916</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34939,19 +34939,19 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344379</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>117.4987305371861</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>341.6751834900291</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
@@ -35021,13 +35021,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>161.705079355207</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344379</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>205.2005069501696</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>362.6084404317796</v>
@@ -35179,16 +35179,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>151.5096066346806</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>250.071647109874</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>148.7405620940789</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
@@ -35264,7 +35264,7 @@
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>347.5093868705986</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35413,7 +35413,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L11" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M11" t="n">
         <v>551.5160606510915</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>32.81159323632068</v>
+        <v>51.00106726098205</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
@@ -35498,16 +35498,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257284</v>
+        <v>41.00382492257285</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488439</v>
+        <v>74.53507640488441</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>172.5106644169666</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
         <v>236.7324157120106</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257284</v>
+        <v>41.00382492257298</v>
       </c>
       <c r="K16" t="n">
-        <v>153.7399700815419</v>
+        <v>153.739970081542</v>
       </c>
       <c r="L16" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M16" t="n">
-        <v>259.2516238475239</v>
+        <v>259.251623847524</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318109</v>
       </c>
       <c r="P16" t="n">
-        <v>192.1653485326901</v>
+        <v>192.1653485326902</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488439</v>
+        <v>74.53507640488453</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36045,7 +36045,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565483</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
@@ -36057,10 +36057,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>126.7230387724871</v>
+        <v>251.4470054535426</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36285,13 +36285,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>193.809314087321</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094873</v>
       </c>
       <c r="O22" t="n">
-        <v>294.7082188526632</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
@@ -36437,13 +36437,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7334829729927</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36455,7 +36455,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133831</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36525,19 +36525,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535426</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>232.7614092820839</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>592.2945994425274</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
         <v>645.507335125408</v>
@@ -36607,16 +36607,16 @@
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>474.756683004799</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
         <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698316</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,13 +36680,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="O27" t="n">
-        <v>135.5123342397974</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>176.3831193851007</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
         <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425274</v>
+        <v>528.5755626272236</v>
       </c>
       <c r="M29" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
         <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>280.7039614853755</v>
       </c>
       <c r="R29" t="n">
-        <v>56.3782898969832</v>
+        <v>56.37828989698316</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,13 +36917,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>107.2231205187084</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
       </c>
       <c r="P31" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>146.110881726089</v>
+        <v>258.8908014987989</v>
       </c>
       <c r="K32" t="n">
-        <v>448.8813523974475</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>657.8525179511623</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>550.8209026458571</v>
+        <v>557.2643651184962</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110591</v>
+        <v>230.2077838426603</v>
       </c>
       <c r="R32" t="n">
-        <v>68.7234727227375</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,10 +37154,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>247.8874524576768</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791171</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>101.3761262993541</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528627</v>
+        <v>300.9532312255018</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750296</v>
+        <v>261.8338889252733</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371496</v>
+        <v>277.1281693097887</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380289</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.456764010152483</v>
+        <v>116.2366837828624</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37473,19 +37473,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681488</v>
       </c>
       <c r="R37" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
@@ -37628,7 +37628,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>598.8774259673916</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>5.636002634528635</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L40" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565487</v>
       </c>
       <c r="M40" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
@@ -37938,13 +37938,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L43" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>188.1733114527919</v>
+        <v>193.809314087321</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
@@ -37953,10 +37953,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>126.7230387724871</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38099,7 +38099,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>286.7682222146709</v>
       </c>
       <c r="M45" t="n">
         <v>634.1127774006881</v>
@@ -38111,10 +38111,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>35.05004611020335</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>5.636002634529181</v>
       </c>
       <c r="K46" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M46" t="n">
-        <v>318.5332807683763</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>169.9842521716083</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
         <v>121.0870361379582</v>
